--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/SMS/SMS_KhachHangLichHen_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/SMS/SMS_KhachHangLichHen_Template.xlsx
@@ -32,25 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>SoDienThoai</t>
-  </si>
-  <si>
-    <t>TenTinhThanh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Khách hàng</t>
   </si>
@@ -77,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +106,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
@@ -195,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -262,18 +252,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -555,17 +568,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK86"/>
+  <dimension ref="A1:CK85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="17" customWidth="1"/>
@@ -579,179 +592,211 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:89" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:89" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+    </row>
+    <row r="3" spans="1:89" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:89" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-    </row>
-    <row r="4" spans="1:89" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="11"/>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
+      <c r="BZ3" s="11"/>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="11"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="11"/>
+      <c r="CF3" s="11"/>
+      <c r="CG3" s="11"/>
+      <c r="CH3" s="11"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="11"/>
+    </row>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
       <c r="D5" s="19"/>
@@ -793,7 +838,7 @@
       <c r="AQ5" s="6"/>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
       <c r="D6" s="19"/>
@@ -835,7 +880,7 @@
       <c r="AQ6" s="6"/>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
       <c r="D7" s="19"/>
@@ -873,11 +918,9 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="13"/>
       <c r="C8" s="15"/>
       <c r="D8" s="19"/>
@@ -917,7 +960,7 @@
       <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
       <c r="D9" s="19"/>
@@ -957,7 +1000,7 @@
       <c r="AO9" s="6"/>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
       <c r="D10" s="19"/>
@@ -997,7 +1040,7 @@
       <c r="AO10" s="6"/>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
       <c r="D11" s="19"/>
@@ -1037,7 +1080,7 @@
       <c r="AO11" s="6"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
       <c r="D12" s="19"/>
@@ -1077,7 +1120,7 @@
       <c r="AO12" s="6"/>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
@@ -1117,47 +1160,16 @@
       <c r="AO13" s="6"/>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
       <c r="D14" s="19"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
       <c r="D15" s="19"/>
@@ -1167,15 +1179,15 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="5"/>
       <c r="C17" s="16"/>
       <c r="D17" s="20"/>
@@ -1184,7 +1196,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="5"/>
       <c r="C18" s="16"/>
       <c r="D18" s="20"/>
@@ -1193,7 +1205,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="5"/>
       <c r="C19" s="16"/>
       <c r="D19" s="20"/>
@@ -1202,7 +1214,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="5"/>
       <c r="C20" s="16"/>
       <c r="D20" s="20"/>
@@ -1211,7 +1223,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="5"/>
       <c r="C21" s="16"/>
       <c r="D21" s="20"/>
@@ -1220,7 +1232,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="5"/>
       <c r="C22" s="16"/>
       <c r="D22" s="20"/>
@@ -1229,7 +1241,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="5"/>
       <c r="C23" s="16"/>
       <c r="D23" s="20"/>
@@ -1238,7 +1250,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="5"/>
       <c r="C24" s="16"/>
       <c r="D24" s="20"/>
@@ -1247,7 +1259,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="5"/>
       <c r="C25" s="16"/>
       <c r="D25" s="20"/>
@@ -1256,7 +1268,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="5"/>
       <c r="C26" s="16"/>
       <c r="D26" s="20"/>
@@ -1265,7 +1277,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="5"/>
       <c r="C27" s="16"/>
       <c r="D27" s="20"/>
@@ -1274,7 +1286,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="5"/>
       <c r="C28" s="16"/>
       <c r="D28" s="20"/>
@@ -1283,7 +1295,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="5"/>
       <c r="C29" s="16"/>
       <c r="D29" s="20"/>
@@ -1292,7 +1304,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="5"/>
       <c r="C30" s="16"/>
       <c r="D30" s="20"/>
@@ -1301,7 +1313,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="5"/>
       <c r="C31" s="16"/>
       <c r="D31" s="20"/>
@@ -1310,7 +1322,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="5"/>
       <c r="C32" s="16"/>
       <c r="D32" s="20"/>
@@ -1319,7 +1331,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="5"/>
       <c r="C33" s="16"/>
       <c r="D33" s="20"/>
@@ -1328,7 +1340,7 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="5"/>
       <c r="C34" s="16"/>
       <c r="D34" s="20"/>
@@ -1337,7 +1349,7 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="5"/>
       <c r="C35" s="16"/>
       <c r="D35" s="20"/>
@@ -1346,7 +1358,7 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="5"/>
       <c r="C36" s="16"/>
       <c r="D36" s="20"/>
@@ -1355,7 +1367,7 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5"/>
       <c r="C37" s="16"/>
       <c r="D37" s="20"/>
@@ -1364,7 +1376,7 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="5"/>
       <c r="C38" s="16"/>
       <c r="D38" s="20"/>
@@ -1373,7 +1385,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="5"/>
       <c r="C39" s="16"/>
       <c r="D39" s="20"/>
@@ -1382,7 +1394,7 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="5"/>
       <c r="C40" s="16"/>
       <c r="D40" s="20"/>
@@ -1391,7 +1403,7 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="5"/>
       <c r="C41" s="16"/>
       <c r="D41" s="20"/>
@@ -1400,7 +1412,7 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="5"/>
       <c r="C42" s="16"/>
       <c r="D42" s="20"/>
@@ -1409,7 +1421,7 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="5"/>
       <c r="C43" s="16"/>
       <c r="D43" s="20"/>
@@ -1418,7 +1430,7 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="5"/>
       <c r="C44" s="16"/>
       <c r="D44" s="20"/>
@@ -1427,7 +1439,7 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="5"/>
       <c r="C45" s="16"/>
       <c r="D45" s="20"/>
@@ -1436,7 +1448,7 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="5"/>
       <c r="C46" s="16"/>
       <c r="D46" s="20"/>
@@ -1445,7 +1457,7 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="5"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
@@ -1454,7 +1466,7 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="5"/>
       <c r="C48" s="16"/>
       <c r="D48" s="20"/>
@@ -1463,7 +1475,7 @@
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="5"/>
       <c r="C49" s="16"/>
       <c r="D49" s="20"/>
@@ -1472,7 +1484,7 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="5"/>
       <c r="C50" s="16"/>
       <c r="D50" s="20"/>
@@ -1481,7 +1493,7 @@
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="5"/>
       <c r="C51" s="16"/>
       <c r="D51" s="20"/>
@@ -1490,7 +1502,7 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="5"/>
       <c r="C52" s="16"/>
       <c r="D52" s="20"/>
@@ -1499,7 +1511,7 @@
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="5"/>
       <c r="C53" s="16"/>
       <c r="D53" s="20"/>
@@ -1508,7 +1520,7 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="5"/>
       <c r="C54" s="16"/>
       <c r="D54" s="20"/>
@@ -1517,7 +1529,7 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="5"/>
       <c r="C55" s="16"/>
       <c r="D55" s="20"/>
@@ -1526,7 +1538,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="5"/>
       <c r="C56" s="16"/>
       <c r="D56" s="20"/>
@@ -1535,7 +1547,7 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="5"/>
       <c r="C57" s="16"/>
       <c r="D57" s="20"/>
@@ -1544,7 +1556,7 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="5"/>
       <c r="C58" s="16"/>
       <c r="D58" s="20"/>
@@ -1553,7 +1565,7 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="5"/>
       <c r="C59" s="16"/>
       <c r="D59" s="20"/>
@@ -1562,7 +1574,7 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="5"/>
       <c r="C60" s="16"/>
       <c r="D60" s="20"/>
@@ -1571,7 +1583,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="5"/>
       <c r="C61" s="16"/>
       <c r="D61" s="20"/>
@@ -1580,7 +1592,7 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="5"/>
       <c r="C62" s="16"/>
       <c r="D62" s="20"/>
@@ -1589,7 +1601,7 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="5"/>
       <c r="C63" s="16"/>
       <c r="D63" s="20"/>
@@ -1598,7 +1610,7 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="5"/>
       <c r="C64" s="16"/>
       <c r="D64" s="20"/>
@@ -1607,7 +1619,7 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="5"/>
       <c r="C65" s="16"/>
       <c r="D65" s="20"/>
@@ -1616,7 +1628,7 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="5"/>
       <c r="C66" s="16"/>
       <c r="D66" s="20"/>
@@ -1625,7 +1637,7 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="5"/>
       <c r="C67" s="16"/>
       <c r="D67" s="20"/>
@@ -1634,7 +1646,7 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="5"/>
       <c r="C68" s="16"/>
       <c r="D68" s="20"/>
@@ -1643,7 +1655,7 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="5"/>
       <c r="C69" s="16"/>
       <c r="D69" s="20"/>
@@ -1652,7 +1664,7 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="5"/>
       <c r="C70" s="16"/>
       <c r="D70" s="20"/>
@@ -1661,7 +1673,7 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="5"/>
       <c r="C71" s="16"/>
       <c r="D71" s="20"/>
@@ -1670,7 +1682,7 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="5"/>
       <c r="C72" s="16"/>
       <c r="D72" s="20"/>
@@ -1679,7 +1691,7 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="5"/>
       <c r="C73" s="16"/>
       <c r="D73" s="20"/>
@@ -1688,7 +1700,7 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="5"/>
       <c r="C74" s="16"/>
       <c r="D74" s="20"/>
@@ -1697,7 +1709,7 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="5"/>
       <c r="C75" s="16"/>
       <c r="D75" s="20"/>
@@ -1706,7 +1718,7 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="5"/>
       <c r="C76" s="16"/>
       <c r="D76" s="20"/>
@@ -1715,7 +1727,7 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="5"/>
       <c r="C77" s="16"/>
       <c r="D77" s="20"/>
@@ -1724,7 +1736,7 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="5"/>
       <c r="C78" s="16"/>
       <c r="D78" s="20"/>
@@ -1733,7 +1745,7 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="5"/>
       <c r="C79" s="16"/>
       <c r="D79" s="20"/>
@@ -1742,7 +1754,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="5"/>
       <c r="C80" s="16"/>
       <c r="D80" s="20"/>
@@ -1751,7 +1763,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="5"/>
       <c r="C81" s="16"/>
       <c r="D81" s="20"/>
@@ -1760,7 +1772,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="5"/>
       <c r="C82" s="16"/>
       <c r="D82" s="20"/>
@@ -1769,7 +1781,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="5"/>
       <c r="C83" s="16"/>
       <c r="D83" s="20"/>
@@ -1778,7 +1790,7 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="5"/>
       <c r="C84" s="16"/>
       <c r="D84" s="20"/>
@@ -1787,7 +1799,7 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="5"/>
       <c r="C85" s="16"/>
       <c r="D85" s="20"/>
@@ -1795,18 +1807,9 @@
       <c r="F85" s="23"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
